--- a/data/158/COJ/Indexes of Business Conditions.xlsx
+++ b/data/158/COJ/Indexes of Business Conditions.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R4(2022)★\令和4年1月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\EWFSV0001\eogko\CI\０１／CI\０１／速報\★R4(2022)★\令和4年2月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="530">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2129,6 +2129,10 @@
   </si>
   <si>
     <t>2022000101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022000202</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2140,7 +2144,7 @@
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="207" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2602,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P520"/>
+  <dimension ref="A1:P521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -2614,14 +2618,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="8.125" customWidth="1"/>
     <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="36">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2663,7 +2667,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2705,7 +2709,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -2753,7 +2757,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -2801,7 +2805,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2831,7 +2835,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2861,7 +2865,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="2" customFormat="1">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="16" t="s">
         <v>25</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="16" t="s">
         <v>27</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="16" t="s">
         <v>29</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="16" t="s">
         <v>35</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="16" t="s">
         <v>38</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="16" t="s">
         <v>39</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="16" t="s">
         <v>41</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="16" t="s">
         <v>42</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="16" t="s">
         <v>43</v>
       </c>
@@ -3561,7 +3565,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="16" t="s">
         <v>44</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="16" t="s">
         <v>45</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" s="16" t="s">
         <v>47</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" s="16" t="s">
         <v>48</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32" s="16" t="s">
         <v>49</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15">
       <c r="A33" s="16" t="s">
         <v>50</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15">
       <c r="A34" s="16" t="s">
         <v>51</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15">
       <c r="A35" s="16" t="s">
         <v>52</v>
       </c>
@@ -3876,7 +3880,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15">
       <c r="A36" s="16" t="s">
         <v>53</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15">
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15">
       <c r="A38" s="16" t="s">
         <v>55</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>266.89999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15">
       <c r="A39" s="16" t="s">
         <v>56</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15">
       <c r="A40" s="16" t="s">
         <v>57</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15">
       <c r="A41" s="16" t="s">
         <v>58</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15">
       <c r="A42" s="16" t="s">
         <v>59</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15">
       <c r="A43" s="16" t="s">
         <v>60</v>
       </c>
@@ -4156,7 +4160,7 @@
         <v>161.19999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15">
       <c r="A44" s="16" t="s">
         <v>61</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15">
       <c r="A45" s="16" t="s">
         <v>62</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15">
       <c r="A46" s="16" t="s">
         <v>63</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15">
       <c r="A47" s="16" t="s">
         <v>64</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15">
       <c r="A48" s="16" t="s">
         <v>65</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15">
       <c r="A49" s="16" t="s">
         <v>66</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15">
       <c r="A50" s="16" t="s">
         <v>67</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15">
       <c r="A51" s="16" t="s">
         <v>68</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15">
       <c r="A52" s="16" t="s">
         <v>69</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15">
       <c r="A53" s="16" t="s">
         <v>70</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15">
       <c r="A54" s="16" t="s">
         <v>71</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15">
       <c r="A55" s="16" t="s">
         <v>72</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15">
       <c r="A56" s="16" t="s">
         <v>73</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>172.3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15">
       <c r="A57" s="16" t="s">
         <v>74</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15">
       <c r="A58" s="16" t="s">
         <v>75</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>250.1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15">
       <c r="A59" s="16" t="s">
         <v>76</v>
       </c>
@@ -4716,7 +4720,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15">
       <c r="A60" s="16" t="s">
         <v>77</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15">
       <c r="A61" s="16" t="s">
         <v>78</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>300.2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15">
       <c r="A62" s="16" t="s">
         <v>79</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>316.89999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15">
       <c r="A63" s="16" t="s">
         <v>80</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>366.9</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15">
       <c r="A64" s="16" t="s">
         <v>81</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>416.9</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15">
       <c r="A65" s="16" t="s">
         <v>82</v>
       </c>
@@ -4926,7 +4930,7 @@
         <v>444.7</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15">
       <c r="A66" s="16" t="s">
         <v>83</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>483.6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15">
       <c r="A67" s="16" t="s">
         <v>84</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15">
       <c r="A68" s="16" t="s">
         <v>85</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>555.79999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15">
       <c r="A69" s="16" t="s">
         <v>86</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>583.6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15">
       <c r="A70" s="16" t="s">
         <v>87</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>600.29999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15">
       <c r="A71" s="16" t="s">
         <v>88</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>633.6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15">
       <c r="A72" s="16" t="s">
         <v>89</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15">
       <c r="A73" s="16" t="s">
         <v>90</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15">
       <c r="A74" s="16" t="s">
         <v>91</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15">
       <c r="A75" s="16" t="s">
         <v>92</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15">
       <c r="A76" s="16" t="s">
         <v>93</v>
       </c>
@@ -5431,7 +5435,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15">
       <c r="A77" s="16" t="s">
         <v>94</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15">
       <c r="A78" s="16" t="s">
         <v>95</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>661.4</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15">
       <c r="A79" s="16" t="s">
         <v>96</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>678.1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15">
       <c r="A80" s="16" t="s">
         <v>97</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15">
       <c r="A81" s="16" t="s">
         <v>98</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15">
       <c r="A82" s="16" t="s">
         <v>99</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15">
       <c r="A83" s="16" t="s">
         <v>100</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15">
       <c r="A84" s="16" t="s">
         <v>101</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15">
       <c r="A85" s="16" t="s">
         <v>102</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>661.3</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15">
       <c r="A86" s="16" t="s">
         <v>103</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>650.20000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15">
       <c r="A87" s="16" t="s">
         <v>104</v>
       </c>
@@ -5948,7 +5952,7 @@
         <v>650.20000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15">
       <c r="A88" s="16" t="s">
         <v>105</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15">
       <c r="A89" s="16" t="s">
         <v>106</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15">
       <c r="A90" s="16" t="s">
         <v>107</v>
       </c>
@@ -6089,7 +6093,7 @@
         <v>661.3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15">
       <c r="A91" s="16" t="s">
         <v>108</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15">
       <c r="A92" s="16" t="s">
         <v>109</v>
       </c>
@@ -6183,7 +6187,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15">
       <c r="A93" s="16" t="s">
         <v>110</v>
       </c>
@@ -6230,7 +6234,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15">
       <c r="A94" s="16" t="s">
         <v>111</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>722.5</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15">
       <c r="A95" s="16" t="s">
         <v>112</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>728.1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15">
       <c r="A96" s="16" t="s">
         <v>113</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>739.2</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15">
       <c r="A97" s="16" t="s">
         <v>114</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>744.8</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15">
       <c r="A98" s="16" t="s">
         <v>115</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>755.9</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15">
       <c r="A99" s="16" t="s">
         <v>116</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>783.7</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15">
       <c r="A100" s="16" t="s">
         <v>117</v>
       </c>
@@ -6559,7 +6563,7 @@
         <v>805.9</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15">
       <c r="A101" s="16" t="s">
         <v>118</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>828.1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15">
       <c r="A102" s="16" t="s">
         <v>119</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>872.5</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15">
       <c r="A103" s="16" t="s">
         <v>120</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>900.3</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15">
       <c r="A104" s="16" t="s">
         <v>121</v>
       </c>
@@ -6747,7 +6751,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15">
       <c r="A105" s="16" t="s">
         <v>122</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>944.8</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15">
       <c r="A106" s="16" t="s">
         <v>123</v>
       </c>
@@ -6841,7 +6845,7 @@
         <v>983.7</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15">
       <c r="A107" s="16" t="s">
         <v>124</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>1011.5</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15">
       <c r="A108" s="16" t="s">
         <v>125</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>1017.1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15">
       <c r="A109" s="16" t="s">
         <v>126</v>
       </c>
@@ -6982,7 +6986,7 @@
         <v>1039.3</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15">
       <c r="A110" s="16" t="s">
         <v>127</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>1067.0999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15">
       <c r="A111" s="16" t="s">
         <v>128</v>
       </c>
@@ -7076,7 +7080,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15">
       <c r="A112" s="16" t="s">
         <v>129</v>
       </c>
@@ -7123,7 +7127,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15">
       <c r="A113" s="16" t="s">
         <v>130</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15">
       <c r="A114" s="16" t="s">
         <v>131</v>
       </c>
@@ -7217,7 +7221,7 @@
         <v>1233.8</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15">
       <c r="A115" s="16" t="s">
         <v>132</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>1261.5999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15">
       <c r="A116" s="16" t="s">
         <v>133</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>1289.4000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15">
       <c r="A117" s="16" t="s">
         <v>134</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>1333.8</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15">
       <c r="A118" s="16" t="s">
         <v>135</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>1339.4</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15">
       <c r="A119" s="16" t="s">
         <v>136</v>
       </c>
@@ -7452,7 +7456,7 @@
         <v>1356.1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15">
       <c r="A120" s="16" t="s">
         <v>137</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15">
       <c r="A121" s="16" t="s">
         <v>138</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15">
       <c r="A122" s="16" t="s">
         <v>139</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>1456.1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15">
       <c r="A123" s="16" t="s">
         <v>140</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15">
       <c r="A124" s="16" t="s">
         <v>141</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15">
       <c r="A125" s="16" t="s">
         <v>142</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>1522.8</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15">
       <c r="A126" s="16" t="s">
         <v>143</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>1556.1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15">
       <c r="A127" s="16" t="s">
         <v>144</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>1606.1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15">
       <c r="A128" s="16" t="s">
         <v>145</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15">
       <c r="A129" s="16" t="s">
         <v>146</v>
       </c>
@@ -7922,7 +7926,7 @@
         <v>1678.3</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15">
       <c r="A130" s="16" t="s">
         <v>147</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15">
       <c r="A131" s="16" t="s">
         <v>148</v>
       </c>
@@ -8016,7 +8020,7 @@
         <v>1717.2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15">
       <c r="A132" s="16" t="s">
         <v>149</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>1733.9</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15">
       <c r="A133" s="16" t="s">
         <v>150</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>1728.3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15">
       <c r="A134" s="16" t="s">
         <v>151</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15">
       <c r="A135" s="16" t="s">
         <v>152</v>
       </c>
@@ -8204,7 +8208,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15">
       <c r="A136" s="16" t="s">
         <v>153</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>1772.8</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15">
       <c r="A137" s="16" t="s">
         <v>154</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>1772.8</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15">
       <c r="A138" s="16" t="s">
         <v>155</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15">
       <c r="A139" s="16" t="s">
         <v>156</v>
       </c>
@@ -8392,7 +8396,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15">
       <c r="A140" s="16" t="s">
         <v>157</v>
       </c>
@@ -8439,7 +8443,7 @@
         <v>1839.5</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15">
       <c r="A141" s="16" t="s">
         <v>158</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>1833.9</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15">
       <c r="A142" s="16" t="s">
         <v>159</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>1839.5</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15">
       <c r="A143" s="16" t="s">
         <v>160</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15">
       <c r="A144" s="16" t="s">
         <v>161</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15">
       <c r="A145" s="16" t="s">
         <v>162</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>1900.6</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15">
       <c r="A146" s="16" t="s">
         <v>163</v>
       </c>
@@ -8721,7 +8725,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15">
       <c r="A147" s="16" t="s">
         <v>164</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>1878.3</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15">
       <c r="A148" s="16" t="s">
         <v>165</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15">
       <c r="A149" s="16" t="s">
         <v>166</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>1922.8</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15">
       <c r="A150" s="16" t="s">
         <v>167</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>1928.4</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15">
       <c r="A151" s="16" t="s">
         <v>168</v>
       </c>
@@ -8956,7 +8960,7 @@
         <v>1911.7</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15">
       <c r="A152" s="16" t="s">
         <v>169</v>
       </c>
@@ -9003,7 +9007,7 @@
         <v>1911.7</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15">
       <c r="A153" s="16" t="s">
         <v>170</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15">
       <c r="A154" s="16" t="s">
         <v>171</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>1878.3</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15">
       <c r="A155" s="16" t="s">
         <v>172</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>1850.5</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15">
       <c r="A156" s="16" t="s">
         <v>173</v>
       </c>
@@ -9191,7 +9195,7 @@
         <v>1833.8</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15">
       <c r="A157" s="16" t="s">
         <v>174</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15">
       <c r="A158" s="16" t="s">
         <v>175</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>1778.2</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15">
       <c r="A159" s="16" t="s">
         <v>176</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>1750.4</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15">
       <c r="A160" s="16" t="s">
         <v>177</v>
       </c>
@@ -9379,7 +9383,7 @@
         <v>1711.5</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15">
       <c r="A161" s="16" t="s">
         <v>178</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>1672.6</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15">
       <c r="A162" s="16" t="s">
         <v>179</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>1633.7</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15">
       <c r="A163" s="16" t="s">
         <v>180</v>
       </c>
@@ -9520,7 +9524,7 @@
         <v>1628.1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15">
       <c r="A164" s="16" t="s">
         <v>181</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>1611.4</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15">
       <c r="A165" s="16" t="s">
         <v>182</v>
       </c>
@@ -9614,7 +9618,7 @@
         <v>1589.2</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15">
       <c r="A166" s="16" t="s">
         <v>183</v>
       </c>
@@ -9661,7 +9665,7 @@
         <v>1561.4</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15">
       <c r="A167" s="16" t="s">
         <v>184</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>1533.6</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15">
       <c r="A168" s="16" t="s">
         <v>185</v>
       </c>
@@ -9755,7 +9759,7 @@
         <v>1505.8</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15">
       <c r="A169" s="16" t="s">
         <v>186</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>1472.5</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15">
       <c r="A170" s="16" t="s">
         <v>187</v>
       </c>
@@ -9849,7 +9853,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15">
       <c r="A171" s="16" t="s">
         <v>188</v>
       </c>
@@ -9896,7 +9900,7 @@
         <v>1472.5</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15">
       <c r="A172" s="16" t="s">
         <v>189</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>1466.9</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15">
       <c r="A173" s="16" t="s">
         <v>190</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>1450.2</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15">
       <c r="A174" s="16" t="s">
         <v>191</v>
       </c>
@@ -10037,7 +10041,7 @@
         <v>1439.1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15">
       <c r="A175" s="16" t="s">
         <v>192</v>
       </c>
@@ -10084,7 +10088,7 @@
         <v>1444.7</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15">
       <c r="A176" s="16" t="s">
         <v>193</v>
       </c>
@@ -10131,7 +10135,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15">
       <c r="A177" s="16" t="s">
         <v>194</v>
       </c>
@@ -10178,7 +10182,7 @@
         <v>1411.4</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15">
       <c r="A178" s="16" t="s">
         <v>195</v>
       </c>
@@ -10225,7 +10229,7 @@
         <v>1389.2</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15">
       <c r="A179" s="16" t="s">
         <v>196</v>
       </c>
@@ -10272,7 +10276,7 @@
         <v>1383.6</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15">
       <c r="A180" s="16" t="s">
         <v>197</v>
       </c>
@@ -10319,7 +10323,7 @@
         <v>1366.9</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15">
       <c r="A181" s="16" t="s">
         <v>198</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>1366.9</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15">
       <c r="A182" s="16" t="s">
         <v>199</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>1383.6</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15">
       <c r="A183" s="16" t="s">
         <v>200</v>
       </c>
@@ -10460,7 +10464,7 @@
         <v>1394.7</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15">
       <c r="A184" s="16" t="s">
         <v>201</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>1405.8</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15">
       <c r="A185" s="16" t="s">
         <v>202</v>
       </c>
@@ -10554,7 +10558,7 @@
         <v>1416.9</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15">
       <c r="A186" s="16" t="s">
         <v>203</v>
       </c>
@@ -10601,7 +10605,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15">
       <c r="A187" s="16" t="s">
         <v>204</v>
       </c>
@@ -10648,7 +10652,7 @@
         <v>1433.6</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15">
       <c r="A188" s="16" t="s">
         <v>205</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>1444.7</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15">
       <c r="A189" s="16" t="s">
         <v>206</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15">
       <c r="A190" s="16" t="s">
         <v>207</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15">
       <c r="A191" s="16" t="s">
         <v>208</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15">
       <c r="A192" s="16" t="s">
         <v>209</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15">
       <c r="A193" s="16" t="s">
         <v>210</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15">
       <c r="A194" s="16" t="s">
         <v>211</v>
       </c>
@@ -10977,7 +10981,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15">
       <c r="A195" s="16" t="s">
         <v>212</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>1472.5</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15">
       <c r="A196" s="16" t="s">
         <v>213</v>
       </c>
@@ -11071,7 +11075,7 @@
         <v>1483.6</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15">
       <c r="A197" s="16" t="s">
         <v>214</v>
       </c>
@@ -11118,7 +11122,7 @@
         <v>1500.3</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15">
       <c r="A198" s="16" t="s">
         <v>215</v>
       </c>
@@ -11165,7 +11169,7 @@
         <v>1511.4</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15">
       <c r="A199" s="16" t="s">
         <v>216</v>
       </c>
@@ -11212,7 +11216,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15">
       <c r="A200" s="16" t="s">
         <v>217</v>
       </c>
@@ -11259,7 +11263,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15">
       <c r="A201" s="16" t="s">
         <v>218</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>1605.9</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15">
       <c r="A202" s="16" t="s">
         <v>219</v>
       </c>
@@ -11353,7 +11357,7 @@
         <v>1633.7</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15">
       <c r="A203" s="16" t="s">
         <v>220</v>
       </c>
@@ -11400,7 +11404,7 @@
         <v>1644.8</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15">
       <c r="A204" s="16" t="s">
         <v>221</v>
       </c>
@@ -11447,7 +11451,7 @@
         <v>1650.4</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15">
       <c r="A205" s="16" t="s">
         <v>222</v>
       </c>
@@ -11494,7 +11498,7 @@
         <v>1661.5</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15">
       <c r="A206" s="16" t="s">
         <v>223</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>1689.3</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15">
       <c r="A207" s="16" t="s">
         <v>224</v>
       </c>
@@ -11588,7 +11592,7 @@
         <v>1700.4</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15">
       <c r="A208" s="16" t="s">
         <v>225</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>1722.6</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15">
       <c r="A209" s="16" t="s">
         <v>226</v>
       </c>
@@ -11682,7 +11686,7 @@
         <v>1761.5</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15">
       <c r="A210" s="16" t="s">
         <v>227</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>1789.3</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15">
       <c r="A211" s="16" t="s">
         <v>228</v>
       </c>
@@ -11776,7 +11780,7 @@
         <v>1817.1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15">
       <c r="A212" s="16" t="s">
         <v>229</v>
       </c>
@@ -11823,7 +11827,7 @@
         <v>1817.1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15">
       <c r="A213" s="16" t="s">
         <v>230</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15">
       <c r="A214" s="16" t="s">
         <v>231</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15">
       <c r="A215" s="16" t="s">
         <v>232</v>
       </c>
@@ -11964,7 +11968,7 @@
         <v>1878.3</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15">
       <c r="A216" s="16" t="s">
         <v>233</v>
       </c>
@@ -12011,7 +12015,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15">
       <c r="A217" s="16" t="s">
         <v>234</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>1922.8</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15">
       <c r="A218" s="16" t="s">
         <v>235</v>
       </c>
@@ -12105,7 +12109,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15">
       <c r="A219" s="16" t="s">
         <v>236</v>
       </c>
@@ -12152,7 +12156,7 @@
         <v>1961.7</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15">
       <c r="A220" s="16" t="s">
         <v>237</v>
       </c>
@@ -12199,7 +12203,7 @@
         <v>1956.1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15">
       <c r="A221" s="16" t="s">
         <v>238</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>1961.7</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15">
       <c r="A222" s="16" t="s">
         <v>239</v>
       </c>
@@ -12293,7 +12297,7 @@
         <v>1956.1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15">
       <c r="A223" s="16" t="s">
         <v>240</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>1928.3</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15">
       <c r="A224" s="16" t="s">
         <v>241</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>1900.5</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15">
       <c r="A225" s="16" t="s">
         <v>242</v>
       </c>
@@ -12434,7 +12438,7 @@
         <v>1850.5</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15">
       <c r="A226" s="16" t="s">
         <v>243</v>
       </c>
@@ -12481,7 +12485,7 @@
         <v>1811.6</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15">
       <c r="A227" s="16" t="s">
         <v>244</v>
       </c>
@@ -12528,7 +12532,7 @@
         <v>1783.8</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15">
       <c r="A228" s="16" t="s">
         <v>245</v>
       </c>
@@ -12575,7 +12579,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15">
       <c r="A229" s="16" t="s">
         <v>246</v>
       </c>
@@ -12622,7 +12626,7 @@
         <v>1739.4</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15">
       <c r="A230" s="16" t="s">
         <v>247</v>
       </c>
@@ -12669,7 +12673,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15">
       <c r="A231" s="16" t="s">
         <v>248</v>
       </c>
@@ -12716,7 +12720,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15">
       <c r="A232" s="16" t="s">
         <v>249</v>
       </c>
@@ -12763,7 +12767,7 @@
         <v>1667.1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15">
       <c r="A233" s="16" t="s">
         <v>250</v>
       </c>
@@ -12810,7 +12814,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15">
       <c r="A234" s="16" t="s">
         <v>251</v>
       </c>
@@ -12857,7 +12861,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15">
       <c r="A235" s="16" t="s">
         <v>252</v>
       </c>
@@ -12904,7 +12908,7 @@
         <v>1628.2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15">
       <c r="A236" s="16" t="s">
         <v>253</v>
       </c>
@@ -12951,7 +12955,7 @@
         <v>1611.5</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15">
       <c r="A237" s="16" t="s">
         <v>254</v>
       </c>
@@ -12998,7 +13002,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15">
       <c r="A238" s="16" t="s">
         <v>255</v>
       </c>
@@ -13045,7 +13049,7 @@
         <v>1561.5</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15">
       <c r="A239" s="16" t="s">
         <v>256</v>
       </c>
@@ -13092,7 +13096,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15">
       <c r="A240" s="16" t="s">
         <v>257</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>1528.1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15">
       <c r="A241" s="16" t="s">
         <v>258</v>
       </c>
@@ -13186,7 +13190,7 @@
         <v>1528.1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15">
       <c r="A242" s="16" t="s">
         <v>259</v>
       </c>
@@ -13233,7 +13237,7 @@
         <v>1528.1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15">
       <c r="A243" s="16" t="s">
         <v>260</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15">
       <c r="A244" s="16" t="s">
         <v>261</v>
       </c>
@@ -13327,7 +13331,7 @@
         <v>1533.6</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15">
       <c r="A245" s="16" t="s">
         <v>262</v>
       </c>
@@ -13374,7 +13378,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15">
       <c r="A246" s="16" t="s">
         <v>263</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>1522.4</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15">
       <c r="A247" s="16" t="s">
         <v>264</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>1516.8</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15">
       <c r="A248" s="16" t="s">
         <v>265</v>
       </c>
@@ -13515,7 +13519,7 @@
         <v>1527.9</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15">
       <c r="A249" s="16" t="s">
         <v>266</v>
       </c>
@@ -13562,7 +13566,7 @@
         <v>1555.7</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15">
       <c r="A250" s="16" t="s">
         <v>267</v>
       </c>
@@ -13609,7 +13613,7 @@
         <v>1572.4</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15">
       <c r="A251" s="16" t="s">
         <v>268</v>
       </c>
@@ -13656,7 +13660,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15">
       <c r="A252" s="16" t="s">
         <v>269</v>
       </c>
@@ -13703,7 +13707,7 @@
         <v>1555.8</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15">
       <c r="A253" s="16" t="s">
         <v>270</v>
       </c>
@@ -13750,7 +13754,7 @@
         <v>1555.8</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15">
       <c r="A254" s="16" t="s">
         <v>271</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>1533.6</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15">
       <c r="A255" s="16" t="s">
         <v>272</v>
       </c>
@@ -13844,7 +13848,7 @@
         <v>1516.9</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15">
       <c r="A256" s="16" t="s">
         <v>273</v>
       </c>
@@ -13891,7 +13895,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15">
       <c r="A257" s="16" t="s">
         <v>274</v>
       </c>
@@ -13938,7 +13942,7 @@
         <v>1533.6</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15">
       <c r="A258" s="16" t="s">
         <v>275</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15">
       <c r="A259" s="16" t="s">
         <v>276</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>1522.5</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15">
       <c r="A260" s="16" t="s">
         <v>277</v>
       </c>
@@ -14079,7 +14083,7 @@
         <v>1528.1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15">
       <c r="A261" s="16" t="s">
         <v>278</v>
       </c>
@@ -14126,7 +14130,7 @@
         <v>1522.5</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15">
       <c r="A262" s="16" t="s">
         <v>279</v>
       </c>
@@ -14173,7 +14177,7 @@
         <v>1500.3</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15">
       <c r="A263" s="16" t="s">
         <v>280</v>
       </c>
@@ -14220,7 +14224,7 @@
         <v>1489.2</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15">
       <c r="A264" s="16" t="s">
         <v>281</v>
       </c>
@@ -14267,7 +14271,7 @@
         <v>1472.5</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15">
       <c r="A265" s="16" t="s">
         <v>282</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15">
       <c r="A266" s="16" t="s">
         <v>283</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15">
       <c r="A267" s="16" t="s">
         <v>284</v>
       </c>
@@ -14408,7 +14412,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15">
       <c r="A268" s="16" t="s">
         <v>285</v>
       </c>
@@ -14455,7 +14459,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15">
       <c r="A269" s="16" t="s">
         <v>286</v>
       </c>
@@ -14502,7 +14506,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15">
       <c r="A270" s="16" t="s">
         <v>287</v>
       </c>
@@ -14549,7 +14553,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15">
       <c r="A271" s="16" t="s">
         <v>288</v>
       </c>
@@ -14596,7 +14600,7 @@
         <v>1400.3</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15">
       <c r="A272" s="16" t="s">
         <v>289</v>
       </c>
@@ -14643,7 +14647,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15">
       <c r="A273" s="16" t="s">
         <v>290</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>1383.7</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15">
       <c r="A274" s="16" t="s">
         <v>291</v>
       </c>
@@ -14737,7 +14741,7 @@
         <v>1361.5</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15">
       <c r="A275" s="16" t="s">
         <v>292</v>
       </c>
@@ -14784,7 +14788,7 @@
         <v>1350.4</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15">
       <c r="A276" s="16" t="s">
         <v>293</v>
       </c>
@@ -14831,7 +14835,7 @@
         <v>1333.7</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15">
       <c r="A277" s="16" t="s">
         <v>294</v>
       </c>
@@ -14878,7 +14882,7 @@
         <v>1339.3</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15">
       <c r="A278" s="16" t="s">
         <v>295</v>
       </c>
@@ -14925,7 +14929,7 @@
         <v>1333.7</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15">
       <c r="A279" s="16" t="s">
         <v>296</v>
       </c>
@@ -14972,7 +14976,7 @@
         <v>1333.7</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15">
       <c r="A280" s="16" t="s">
         <v>297</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>1328.1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15">
       <c r="A281" s="16" t="s">
         <v>298</v>
       </c>
@@ -15066,7 +15070,7 @@
         <v>1333.7</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15">
       <c r="A282" s="16" t="s">
         <v>299</v>
       </c>
@@ -15113,7 +15117,7 @@
         <v>1361.5</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15">
       <c r="A283" s="16" t="s">
         <v>300</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>1355.9</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15">
       <c r="A284" s="16" t="s">
         <v>301</v>
       </c>
@@ -15207,7 +15211,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15">
       <c r="A285" s="16" t="s">
         <v>302</v>
       </c>
@@ -15254,7 +15258,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15">
       <c r="A286" s="16" t="s">
         <v>303</v>
       </c>
@@ -15301,7 +15305,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15">
       <c r="A287" s="16" t="s">
         <v>304</v>
       </c>
@@ -15348,7 +15352,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15">
       <c r="A288" s="16" t="s">
         <v>305</v>
       </c>
@@ -15395,7 +15399,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15">
       <c r="A289" s="16" t="s">
         <v>306</v>
       </c>
@@ -15442,7 +15446,7 @@
         <v>1450.4</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15">
       <c r="A290" s="16" t="s">
         <v>307</v>
       </c>
@@ -15489,7 +15493,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15">
       <c r="A291" s="16" t="s">
         <v>308</v>
       </c>
@@ -15536,7 +15540,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15">
       <c r="A292" s="16" t="s">
         <v>309</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>1528.2</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15">
       <c r="A293" s="16" t="s">
         <v>310</v>
       </c>
@@ -15630,7 +15634,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15">
       <c r="A294" s="16" t="s">
         <v>311</v>
       </c>
@@ -15677,7 +15681,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15">
       <c r="A295" s="16" t="s">
         <v>312</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>1583.8</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15">
       <c r="A296" s="16" t="s">
         <v>313</v>
       </c>
@@ -15771,7 +15775,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15">
       <c r="A297" s="16" t="s">
         <v>314</v>
       </c>
@@ -15818,7 +15822,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15">
       <c r="A298" s="16" t="s">
         <v>315</v>
       </c>
@@ -15865,7 +15869,7 @@
         <v>1633.9</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15">
       <c r="A299" s="16" t="s">
         <v>316</v>
       </c>
@@ -15912,7 +15916,7 @@
         <v>1661.7</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15">
       <c r="A300" s="16" t="s">
         <v>317</v>
       </c>
@@ -15959,7 +15963,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15">
       <c r="A301" s="16" t="s">
         <v>318</v>
       </c>
@@ -16006,7 +16010,7 @@
         <v>1706.1</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15">
       <c r="A302" s="16" t="s">
         <v>319</v>
       </c>
@@ -16053,7 +16057,7 @@
         <v>1722.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15">
       <c r="A303" s="16" t="s">
         <v>320</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>1767.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15">
       <c r="A304" s="16" t="s">
         <v>321</v>
       </c>
@@ -16147,7 +16151,7 @@
         <v>1778.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15">
       <c r="A305" s="16" t="s">
         <v>322</v>
       </c>
@@ -16194,7 +16198,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15">
       <c r="A306" s="16" t="s">
         <v>323</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>1778.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15">
       <c r="A307" s="16" t="s">
         <v>324</v>
       </c>
@@ -16288,7 +16292,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:15">
       <c r="A308" s="16" t="s">
         <v>325</v>
       </c>
@@ -16335,7 +16339,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:15">
       <c r="A309" s="16" t="s">
         <v>326</v>
       </c>
@@ -16382,7 +16386,7 @@
         <v>1806.1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:15">
       <c r="A310" s="16" t="s">
         <v>327</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>1833.9</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:15">
       <c r="A311" s="16" t="s">
         <v>328</v>
       </c>
@@ -16476,7 +16480,7 @@
         <v>1850.6</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15">
       <c r="A312" s="16" t="s">
         <v>329</v>
       </c>
@@ -16523,7 +16527,7 @@
         <v>1867.3</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:15">
       <c r="A313" s="16" t="s">
         <v>330</v>
       </c>
@@ -16570,7 +16574,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:15">
       <c r="A314" s="16" t="s">
         <v>331</v>
       </c>
@@ -16617,7 +16621,7 @@
         <v>1872.9</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:15">
       <c r="A315" s="16" t="s">
         <v>332</v>
       </c>
@@ -16664,7 +16668,7 @@
         <v>1895.1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15">
       <c r="A316" s="16" t="s">
         <v>333</v>
       </c>
@@ -16711,7 +16715,7 @@
         <v>1917.3</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15">
       <c r="A317" s="16" t="s">
         <v>334</v>
       </c>
@@ -16758,7 +16762,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:15">
       <c r="A318" s="16" t="s">
         <v>335</v>
       </c>
@@ -16805,7 +16809,7 @@
         <v>1928.5</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:15">
       <c r="A319" s="16" t="s">
         <v>336</v>
       </c>
@@ -16852,7 +16856,7 @@
         <v>1945.2</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:15">
       <c r="A320" s="16" t="s">
         <v>337</v>
       </c>
@@ -16899,7 +16903,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:15">
       <c r="A321" s="16" t="s">
         <v>338</v>
       </c>
@@ -16946,7 +16950,7 @@
         <v>1995.2</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:15">
       <c r="A322" s="16" t="s">
         <v>339</v>
       </c>
@@ -16993,7 +16997,7 @@
         <v>2028.5</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:15">
       <c r="A323" s="16" t="s">
         <v>340</v>
       </c>
@@ -17040,7 +17044,7 @@
         <v>2050.6999999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:15">
       <c r="A324" s="16" t="s">
         <v>341</v>
       </c>
@@ -17087,7 +17091,7 @@
         <v>2089.6</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:15">
       <c r="A325" s="16" t="s">
         <v>342</v>
       </c>
@@ -17134,7 +17138,7 @@
         <v>2106.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:15">
       <c r="A326" s="16" t="s">
         <v>343</v>
       </c>
@@ -17181,7 +17185,7 @@
         <v>2111.9</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:15">
       <c r="A327" s="16" t="s">
         <v>344</v>
       </c>
@@ -17228,7 +17232,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:15">
       <c r="A328" s="16" t="s">
         <v>345</v>
       </c>
@@ -17275,7 +17279,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:15">
       <c r="A329" s="16" t="s">
         <v>346</v>
       </c>
@@ -17322,7 +17326,7 @@
         <v>2156.4</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:15">
       <c r="A330" s="16" t="s">
         <v>347</v>
       </c>
@@ -17369,7 +17373,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:15">
       <c r="A331" s="16" t="s">
         <v>348</v>
       </c>
@@ -17416,7 +17420,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:15">
       <c r="A332" s="16" t="s">
         <v>349</v>
       </c>
@@ -17463,7 +17467,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:15">
       <c r="A333" s="16" t="s">
         <v>350</v>
       </c>
@@ -17510,7 +17514,7 @@
         <v>2178.6</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:15">
       <c r="A334" s="16" t="s">
         <v>351</v>
       </c>
@@ -17557,7 +17561,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:15">
       <c r="A335" s="16" t="s">
         <v>352</v>
       </c>
@@ -17604,7 +17608,7 @@
         <v>2200.8000000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:15">
       <c r="A336" s="16" t="s">
         <v>353</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>2228.6</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15">
       <c r="A337" s="16" t="s">
         <v>354</v>
       </c>
@@ -17698,7 +17702,7 @@
         <v>2256.4</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15">
       <c r="A338" s="16" t="s">
         <v>355</v>
       </c>
@@ -17745,7 +17749,7 @@
         <v>2278.6</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15">
       <c r="A339" s="16" t="s">
         <v>356</v>
       </c>
@@ -17792,7 +17796,7 @@
         <v>2278.6</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15">
       <c r="A340" s="16" t="s">
         <v>357</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>2295.3000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15">
       <c r="A341" s="16" t="s">
         <v>358</v>
       </c>
@@ -17886,7 +17890,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15">
       <c r="A342" s="16" t="s">
         <v>359</v>
       </c>
@@ -17933,7 +17937,7 @@
         <v>2339.8000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15">
       <c r="A343" s="16" t="s">
         <v>360</v>
       </c>
@@ -17980,7 +17984,7 @@
         <v>2367.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15">
       <c r="A344" s="16" t="s">
         <v>361</v>
       </c>
@@ -18027,7 +18031,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15">
       <c r="A345" s="16" t="s">
         <v>362</v>
       </c>
@@ -18074,7 +18078,7 @@
         <v>2350.9</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15">
       <c r="A346" s="16" t="s">
         <v>363</v>
       </c>
@@ -18121,7 +18125,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15">
       <c r="A347" s="16" t="s">
         <v>364</v>
       </c>
@@ -18168,7 +18172,7 @@
         <v>2284.1999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15">
       <c r="A348" s="16" t="s">
         <v>365</v>
       </c>
@@ -18215,7 +18219,7 @@
         <v>2256.4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15">
       <c r="A349" s="16" t="s">
         <v>366</v>
       </c>
@@ -18262,7 +18266,7 @@
         <v>2239.6999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15">
       <c r="A350" s="16" t="s">
         <v>367</v>
       </c>
@@ -18309,7 +18313,7 @@
         <v>2200.8000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15">
       <c r="A351" s="16" t="s">
         <v>368</v>
       </c>
@@ -18356,7 +18360,7 @@
         <v>2184.1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15">
       <c r="A352" s="16" t="s">
         <v>369</v>
       </c>
@@ -18403,7 +18407,7 @@
         <v>2145.1999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:15">
       <c r="A353" s="16" t="s">
         <v>370</v>
       </c>
@@ -18450,7 +18454,7 @@
         <v>2139.6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:15">
       <c r="A354" s="16" t="s">
         <v>371</v>
       </c>
@@ -18497,7 +18501,7 @@
         <v>2089.6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:15">
       <c r="A355" s="16" t="s">
         <v>372</v>
       </c>
@@ -18544,7 +18548,7 @@
         <v>2039.6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:15">
       <c r="A356" s="16" t="s">
         <v>373</v>
       </c>
@@ -18591,7 +18595,7 @@
         <v>1989.6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:15">
       <c r="A357" s="16" t="s">
         <v>374</v>
       </c>
@@ -18638,7 +18642,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:15">
       <c r="A358" s="16" t="s">
         <v>375</v>
       </c>
@@ -18685,7 +18689,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:15">
       <c r="A359" s="16" t="s">
         <v>376</v>
       </c>
@@ -18732,7 +18736,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:15">
       <c r="A360" s="16" t="s">
         <v>377</v>
       </c>
@@ -18779,7 +18783,7 @@
         <v>1845.1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:15">
       <c r="A361" s="16" t="s">
         <v>378</v>
       </c>
@@ -18826,7 +18830,7 @@
         <v>1806.2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:15">
       <c r="A362" s="16" t="s">
         <v>379</v>
       </c>
@@ -18873,7 +18877,7 @@
         <v>1789.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:15">
       <c r="A363" s="16" t="s">
         <v>380</v>
       </c>
@@ -18920,7 +18924,7 @@
         <v>1772.8</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:15">
       <c r="A364" s="16" t="s">
         <v>381</v>
       </c>
@@ -18967,7 +18971,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:15">
       <c r="A365" s="16" t="s">
         <v>382</v>
       </c>
@@ -19014,7 +19018,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:15">
       <c r="A366" s="16" t="s">
         <v>383</v>
       </c>
@@ -19061,7 +19065,7 @@
         <v>1750.6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:15">
       <c r="A367" s="16" t="s">
         <v>384</v>
       </c>
@@ -19108,7 +19112,7 @@
         <v>1767.3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:15">
       <c r="A368" s="16" t="s">
         <v>385</v>
       </c>
@@ -19155,7 +19159,7 @@
         <v>1772.9</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15">
       <c r="A369" s="16" t="s">
         <v>386</v>
       </c>
@@ -19202,7 +19206,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15">
       <c r="A370" s="16" t="s">
         <v>387</v>
       </c>
@@ -19249,7 +19253,7 @@
         <v>1772.9</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15">
       <c r="A371" s="16" t="s">
         <v>388</v>
       </c>
@@ -19296,7 +19300,7 @@
         <v>1772.9</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15">
       <c r="A372" s="16" t="s">
         <v>389</v>
       </c>
@@ -19343,7 +19347,7 @@
         <v>1767.3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15">
       <c r="A373" s="16" t="s">
         <v>390</v>
       </c>
@@ -19390,7 +19394,7 @@
         <v>1806.2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15">
       <c r="A374" s="16" t="s">
         <v>391</v>
       </c>
@@ -19437,7 +19441,7 @@
         <v>1822.9</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15">
       <c r="A375" s="16" t="s">
         <v>392</v>
       </c>
@@ -19484,7 +19488,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15">
       <c r="A376" s="16" t="s">
         <v>393</v>
       </c>
@@ -19531,7 +19535,7 @@
         <v>1822.9</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15">
       <c r="A377" s="16" t="s">
         <v>394</v>
       </c>
@@ -19578,7 +19582,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15">
       <c r="A378" s="16" t="s">
         <v>395</v>
       </c>
@@ -19625,7 +19629,7 @@
         <v>1872.9</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15">
       <c r="A379" s="16" t="s">
         <v>396</v>
       </c>
@@ -19672,7 +19676,7 @@
         <v>1878.5</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15">
       <c r="A380" s="16" t="s">
         <v>397</v>
       </c>
@@ -19719,7 +19723,7 @@
         <v>1895.2</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15">
       <c r="A381" s="16" t="s">
         <v>398</v>
       </c>
@@ -19766,7 +19770,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15">
       <c r="A382" s="16" t="s">
         <v>399</v>
       </c>
@@ -19813,7 +19817,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15">
       <c r="A383" s="16" t="s">
         <v>400</v>
       </c>
@@ -19860,7 +19864,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15">
       <c r="A384" s="16" t="s">
         <v>401</v>
       </c>
@@ -19907,7 +19911,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15">
       <c r="A385" s="16" t="s">
         <v>402</v>
       </c>
@@ -19954,7 +19958,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15">
       <c r="A386" s="16" t="s">
         <v>403</v>
       </c>
@@ -20001,7 +20005,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15">
       <c r="A387" s="16" t="s">
         <v>404</v>
       </c>
@@ -20048,7 +20052,7 @@
         <v>1900.8</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15">
       <c r="A388" s="16" t="s">
         <v>405</v>
       </c>
@@ -20095,7 +20099,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15">
       <c r="A389" s="16" t="s">
         <v>406</v>
       </c>
@@ -20142,7 +20146,7 @@
         <v>1923.1</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15">
       <c r="A390" s="16" t="s">
         <v>407</v>
       </c>
@@ -20189,7 +20193,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15">
       <c r="A391" s="16" t="s">
         <v>408</v>
       </c>
@@ -20236,7 +20240,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15">
       <c r="A392" s="16" t="s">
         <v>409</v>
       </c>
@@ -20283,7 +20287,7 @@
         <v>1895.4</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15">
       <c r="A393" s="16" t="s">
         <v>410</v>
       </c>
@@ -20330,7 +20334,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15">
       <c r="A394" s="16" t="s">
         <v>411</v>
       </c>
@@ -20377,7 +20381,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15">
       <c r="A395" s="16" t="s">
         <v>412</v>
       </c>
@@ -20424,7 +20428,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15">
       <c r="A396" s="16" t="s">
         <v>413</v>
       </c>
@@ -20471,7 +20475,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15">
       <c r="A397" s="16" t="s">
         <v>414</v>
       </c>
@@ -20518,7 +20522,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15">
       <c r="A398" s="16" t="s">
         <v>415</v>
       </c>
@@ -20565,7 +20569,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15">
       <c r="A399" s="16" t="s">
         <v>416</v>
       </c>
@@ -20612,7 +20616,7 @@
         <v>1895.3</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15">
       <c r="A400" s="16" t="s">
         <v>417</v>
       </c>
@@ -20659,7 +20663,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15">
       <c r="A401" s="16" t="s">
         <v>418</v>
       </c>
@@ -20706,7 +20710,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15">
       <c r="A402" s="16" t="s">
         <v>419</v>
       </c>
@@ -20753,7 +20757,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15">
       <c r="A403" s="16" t="s">
         <v>420</v>
       </c>
@@ -20800,7 +20804,7 @@
         <v>1911.9</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15">
       <c r="A404" s="16" t="s">
         <v>421</v>
       </c>
@@ -20847,7 +20851,7 @@
         <v>1906.3</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15">
       <c r="A405" s="16" t="s">
         <v>422</v>
       </c>
@@ -20894,7 +20898,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15">
       <c r="A406" s="16" t="s">
         <v>423</v>
       </c>
@@ -20941,7 +20945,7 @@
         <v>1895.1</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15">
       <c r="A407" s="16" t="s">
         <v>424</v>
       </c>
@@ -20988,7 +20992,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15">
       <c r="A408" s="16" t="s">
         <v>425</v>
       </c>
@@ -21035,7 +21039,7 @@
         <v>1906.3</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15">
       <c r="A409" s="16" t="s">
         <v>426</v>
       </c>
@@ -21082,7 +21086,7 @@
         <v>1911.9</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15">
       <c r="A410" s="16" t="s">
         <v>427</v>
       </c>
@@ -21129,7 +21133,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15">
       <c r="A411" s="16" t="s">
         <v>428</v>
       </c>
@@ -21176,7 +21180,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15">
       <c r="A412" s="16" t="s">
         <v>429</v>
       </c>
@@ -21223,7 +21227,7 @@
         <v>1995.3</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15">
       <c r="A413" s="16" t="s">
         <v>430</v>
       </c>
@@ -21270,7 +21274,7 @@
         <v>2023.1</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15">
       <c r="A414" s="16" t="s">
         <v>431</v>
       </c>
@@ -21317,7 +21321,7 @@
         <v>2050.9</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15">
       <c r="A415" s="16" t="s">
         <v>432</v>
       </c>
@@ -21364,7 +21368,7 @@
         <v>2100.9</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15">
       <c r="A416" s="16" t="s">
         <v>433</v>
       </c>
@@ -21411,7 +21415,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15">
       <c r="A417" s="16" t="s">
         <v>434</v>
       </c>
@@ -21458,7 +21462,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15">
       <c r="A418" s="16" t="s">
         <v>435</v>
       </c>
@@ -21505,7 +21509,7 @@
         <v>2095.4</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15">
       <c r="A419" s="16" t="s">
         <v>436</v>
       </c>
@@ -21552,7 +21556,7 @@
         <v>2112.1</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15">
       <c r="A420" s="16" t="s">
         <v>437</v>
       </c>
@@ -21599,7 +21603,7 @@
         <v>2112.1</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15">
       <c r="A421" s="16" t="s">
         <v>438</v>
       </c>
@@ -21646,7 +21650,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15">
       <c r="A422" s="16" t="s">
         <v>439</v>
       </c>
@@ -21693,7 +21697,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15">
       <c r="A423" s="16" t="s">
         <v>440</v>
       </c>
@@ -21740,7 +21744,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15">
       <c r="A424" s="16" t="s">
         <v>441</v>
       </c>
@@ -21787,7 +21791,7 @@
         <v>2128.6999999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15">
       <c r="A425" s="16" t="s">
         <v>442</v>
       </c>
@@ -21834,7 +21838,7 @@
         <v>2123.1</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15">
       <c r="A426" s="16" t="s">
         <v>443</v>
       </c>
@@ -21881,7 +21885,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15">
       <c r="A427" s="16" t="s">
         <v>444</v>
       </c>
@@ -21928,7 +21932,7 @@
         <v>2128.6999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15">
       <c r="A428" s="16" t="s">
         <v>445</v>
       </c>
@@ -21975,7 +21979,7 @@
         <v>2123.1</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15">
       <c r="A429" s="16" t="s">
         <v>446</v>
       </c>
@@ -22022,7 +22026,7 @@
         <v>2128.6999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15">
       <c r="A430" s="16" t="s">
         <v>447</v>
       </c>
@@ -22069,7 +22073,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15">
       <c r="A431" s="16" t="s">
         <v>448</v>
       </c>
@@ -22116,7 +22120,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15">
       <c r="A432" s="16" t="s">
         <v>449</v>
       </c>
@@ -22163,7 +22167,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15">
       <c r="A433" s="16" t="s">
         <v>450</v>
       </c>
@@ -22210,7 +22214,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15">
       <c r="A434" s="16" t="s">
         <v>451</v>
       </c>
@@ -22257,7 +22261,7 @@
         <v>2156.6</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15">
       <c r="A435" s="16" t="s">
         <v>452</v>
       </c>
@@ -22304,7 +22308,7 @@
         <v>2145.5</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15">
       <c r="A436" s="16" t="s">
         <v>453</v>
       </c>
@@ -22351,7 +22355,7 @@
         <v>2123.3000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15">
       <c r="A437" s="16" t="s">
         <v>454</v>
       </c>
@@ -22398,7 +22402,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15">
       <c r="A438" s="16" t="s">
         <v>455</v>
       </c>
@@ -22445,7 +22449,7 @@
         <v>2151.1</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15">
       <c r="A439" s="16" t="s">
         <v>456</v>
       </c>
@@ -22492,7 +22496,7 @@
         <v>2156.6999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15">
       <c r="A440" s="16" t="s">
         <v>457</v>
       </c>
@@ -22539,7 +22543,7 @@
         <v>2162.3000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15">
       <c r="A441" s="16" t="s">
         <v>458</v>
       </c>
@@ -22586,7 +22590,7 @@
         <v>2167.9</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15">
       <c r="A442" s="16" t="s">
         <v>459</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>2184.6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15">
       <c r="A443" s="16" t="s">
         <v>460</v>
       </c>
@@ -22680,7 +22684,7 @@
         <v>2167.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15">
       <c r="A444" s="16" t="s">
         <v>461</v>
       </c>
@@ -22727,7 +22731,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15">
       <c r="A445" s="16" t="s">
         <v>462</v>
       </c>
@@ -22774,7 +22778,7 @@
         <v>2184.6</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15">
       <c r="A446" s="16" t="s">
         <v>463</v>
       </c>
@@ -22821,7 +22825,7 @@
         <v>2212.4</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15">
       <c r="A447" s="16" t="s">
         <v>464</v>
       </c>
@@ -22868,7 +22872,7 @@
         <v>2234.6</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15">
       <c r="A448" s="16" t="s">
         <v>465</v>
       </c>
@@ -22915,7 +22919,7 @@
         <v>2273.5</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:15">
       <c r="A449" s="16" t="s">
         <v>466</v>
       </c>
@@ -22962,7 +22966,7 @@
         <v>2295.6999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:15">
       <c r="A450" s="16" t="s">
         <v>467</v>
       </c>
@@ -23009,7 +23013,7 @@
         <v>2312.4</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:15">
       <c r="A451" s="16" t="s">
         <v>468</v>
       </c>
@@ -23056,7 +23060,7 @@
         <v>2340.1999999999998</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:15">
       <c r="A452" s="16" t="s">
         <v>469</v>
       </c>
@@ -23103,7 +23107,7 @@
         <v>2379.1</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:15">
       <c r="A453" s="16" t="s">
         <v>470</v>
       </c>
@@ -23150,7 +23154,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:15">
       <c r="A454" s="16" t="s">
         <v>471</v>
       </c>
@@ -23197,7 +23201,7 @@
         <v>2434.6999999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:15">
       <c r="A455" s="16" t="s">
         <v>472</v>
       </c>
@@ -23244,7 +23248,7 @@
         <v>2451.4</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:15">
       <c r="A456" s="16" t="s">
         <v>473</v>
       </c>
@@ -23291,7 +23295,7 @@
         <v>2468.1</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:15">
       <c r="A457" s="16" t="s">
         <v>474</v>
       </c>
@@ -23338,7 +23342,7 @@
         <v>2473.6999999999998</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:15">
       <c r="A458" s="16" t="s">
         <v>475</v>
       </c>
@@ -23385,7 +23389,7 @@
         <v>2479.3000000000002</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:15">
       <c r="A459" s="16" t="s">
         <v>476</v>
       </c>
@@ -23432,7 +23436,7 @@
         <v>2507.1</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:15">
       <c r="A460" s="16" t="s">
         <v>477</v>
       </c>
@@ -23479,7 +23483,7 @@
         <v>2551.5</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:15">
       <c r="A461" s="16" t="s">
         <v>478</v>
       </c>
@@ -23526,7 +23530,7 @@
         <v>2601.5</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:15">
       <c r="A462" s="16" t="s">
         <v>479</v>
       </c>
@@ -23573,7 +23577,7 @@
         <v>2645.9</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:15">
       <c r="A463" s="16" t="s">
         <v>480</v>
       </c>
@@ -23620,7 +23624,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:15">
       <c r="A464" s="16" t="s">
         <v>481</v>
       </c>
@@ -23667,7 +23671,7 @@
         <v>2668.1</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:15">
       <c r="A465" s="16" t="s">
         <v>482</v>
       </c>
@@ -23714,7 +23718,7 @@
         <v>2679.2</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:15">
       <c r="A466" s="16" t="s">
         <v>483</v>
       </c>
@@ -23761,7 +23765,7 @@
         <v>2684.8</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:15">
       <c r="A467" s="16" t="s">
         <v>484</v>
       </c>
@@ -23808,7 +23812,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:15">
       <c r="A468" s="16" t="s">
         <v>485</v>
       </c>
@@ -23855,7 +23859,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:15">
       <c r="A469" s="16" t="s">
         <v>486</v>
       </c>
@@ -23902,7 +23906,7 @@
         <v>2679.2</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:15">
       <c r="A470" s="16" t="s">
         <v>487</v>
       </c>
@@ -23949,7 +23953,7 @@
         <v>2662.5</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:15">
       <c r="A471" s="16" t="s">
         <v>488</v>
       </c>
@@ -23996,7 +24000,7 @@
         <v>2662.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:15">
       <c r="A472" s="16" t="s">
         <v>489</v>
       </c>
@@ -24043,7 +24047,7 @@
         <v>2668.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:15">
       <c r="A473" s="16" t="s">
         <v>490</v>
       </c>
@@ -24090,7 +24094,7 @@
         <v>2668.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:15">
       <c r="A474" s="16" t="s">
         <v>491</v>
       </c>
@@ -24137,7 +24141,7 @@
         <v>2662.5</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:15">
       <c r="A475" s="16" t="s">
         <v>492</v>
       </c>
@@ -24184,7 +24188,7 @@
         <v>2679.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:15">
       <c r="A476" s="16" t="s">
         <v>493</v>
       </c>
@@ -24231,7 +24235,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:15">
       <c r="A477" s="16" t="s">
         <v>494</v>
       </c>
@@ -24278,7 +24282,7 @@
         <v>2734.8</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:15">
       <c r="A478" s="16" t="s">
         <v>495</v>
       </c>
@@ -24325,7 +24329,7 @@
         <v>2745.9</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:15">
       <c r="A479" s="16" t="s">
         <v>496</v>
       </c>
@@ -24372,7 +24376,7 @@
         <v>2773.7</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:15">
       <c r="A480" s="16" t="s">
         <v>497</v>
       </c>
@@ -24419,7 +24423,7 @@
         <v>2790.4</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:15">
       <c r="A481" s="16" t="s">
         <v>498</v>
       </c>
@@ -24466,7 +24470,7 @@
         <v>2801.5</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:15">
       <c r="A482" s="16" t="s">
         <v>499</v>
       </c>
@@ -24513,7 +24517,7 @@
         <v>2790.4</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:15">
       <c r="A483" s="16" t="s">
         <v>500</v>
       </c>
@@ -24560,7 +24564,7 @@
         <v>2784.8</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:15">
       <c r="A484" s="16" t="s">
         <v>501</v>
       </c>
@@ -24607,7 +24611,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:15">
       <c r="A485" s="16" t="s">
         <v>502</v>
       </c>
@@ -24654,7 +24658,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:15">
       <c r="A486" s="16" t="s">
         <v>503</v>
       </c>
@@ -24701,7 +24705,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:15">
       <c r="A487" s="16" t="s">
         <v>504</v>
       </c>
@@ -24748,7 +24752,7 @@
         <v>2729.3</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:15">
       <c r="A488" s="16" t="s">
         <v>505</v>
       </c>
@@ -24795,7 +24799,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:15">
       <c r="A489" s="16" t="s">
         <v>506</v>
       </c>
@@ -24842,7 +24846,7 @@
         <v>2684.8</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:15">
       <c r="A490" s="16" t="s">
         <v>507</v>
       </c>
@@ -24889,7 +24893,7 @@
         <v>2645.9</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:15">
       <c r="A491" s="16" t="s">
         <v>508</v>
       </c>
@@ -24936,7 +24940,7 @@
         <v>2595.9</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:15">
       <c r="A492" s="16" t="s">
         <v>509</v>
       </c>
@@ -24983,7 +24987,7 @@
         <v>2568.1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:15">
       <c r="A493" s="16" t="s">
         <v>510</v>
       </c>
@@ -25030,7 +25034,7 @@
         <v>2562.5</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:15">
       <c r="A494" s="16" t="s">
         <v>511</v>
       </c>
@@ -25077,7 +25081,7 @@
         <v>2573.6</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:15">
       <c r="A495" s="16" t="s">
         <v>512</v>
       </c>
@@ -25124,7 +25128,7 @@
         <v>2562.5</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:15">
       <c r="A496" s="16" t="s">
         <v>513</v>
       </c>
@@ -25171,7 +25175,7 @@
         <v>2556.9</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:15">
       <c r="A497" s="16" t="s">
         <v>514</v>
       </c>
@@ -25218,7 +25222,7 @@
         <v>2562.5</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:15">
       <c r="A498" s="16" t="s">
         <v>515</v>
       </c>
@@ -25265,7 +25269,7 @@
         <v>2551.4</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:15">
       <c r="A499" s="16" t="s">
         <v>516</v>
       </c>
@@ -25312,7 +25316,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:15">
       <c r="A500" s="16" t="s">
         <v>517</v>
       </c>
@@ -25359,7 +25363,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:15">
       <c r="A501" s="16" t="s">
         <v>518</v>
       </c>
@@ -25406,7 +25410,7 @@
         <v>2590.3000000000002</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:15">
       <c r="A502" s="16" t="s">
         <v>519</v>
       </c>
@@ -25453,7 +25457,7 @@
         <v>2623.6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:15">
       <c r="A503" s="16" t="s">
         <v>520</v>
       </c>
@@ -25500,7 +25504,7 @@
         <v>2640.3</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:15">
       <c r="A504" s="16" t="s">
         <v>521</v>
       </c>
@@ -25547,7 +25551,7 @@
         <v>2645.9</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:15">
       <c r="A505" s="16" t="s">
         <v>522</v>
       </c>
@@ -25594,7 +25598,7 @@
         <v>2662.6</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:15">
       <c r="A506" s="16" t="s">
         <v>523</v>
       </c>
@@ -25641,7 +25645,7 @@
         <v>2673.7</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:15">
       <c r="A507" s="16" t="s">
         <v>524</v>
       </c>
@@ -25688,7 +25692,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:15">
       <c r="A508" s="16" t="s">
         <v>525</v>
       </c>
@@ -25735,7 +25739,7 @@
         <v>2640.3</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:15">
       <c r="A509" s="16" t="s">
         <v>526</v>
       </c>
@@ -25782,7 +25786,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:15">
       <c r="A510" s="16" t="s">
         <v>527</v>
       </c>
@@ -25829,7 +25833,7 @@
         <v>2651.4</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:15">
       <c r="A511" s="16" t="s">
         <v>528</v>
       </c>
@@ -25876,13 +25880,60 @@
         <v>2651.4</v>
       </c>
     </row>
-    <row r="520" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D520" s="3"/>
-      <c r="E520" s="3"/>
-      <c r="F520" s="3"/>
-      <c r="G520" s="3"/>
-      <c r="H520" s="3"/>
-      <c r="I520" s="3"/>
+    <row r="512" spans="1:15">
+      <c r="A512" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B512" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C512" s="2">
+        <v>2</v>
+      </c>
+      <c r="D512" s="4">
+        <v>100.9</v>
+      </c>
+      <c r="E512" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="F512" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="G512" s="4">
+        <v>97.2</v>
+      </c>
+      <c r="H512" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="I512" s="4">
+        <v>97.7</v>
+      </c>
+      <c r="J512" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="K512" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="L512" s="4">
+        <v>100</v>
+      </c>
+      <c r="M512" s="4">
+        <v>1334.3</v>
+      </c>
+      <c r="N512" s="4">
+        <v>3152.5</v>
+      </c>
+      <c r="O512" s="4">
+        <v>2701.4</v>
+      </c>
+    </row>
+    <row r="521" spans="4:9">
+      <c r="D521" s="3"/>
+      <c r="E521" s="3"/>
+      <c r="F521" s="3"/>
+      <c r="G521" s="3"/>
+      <c r="H521" s="3"/>
+      <c r="I521" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
